--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KrakenProjet\AlexisLeMasne_4_19012021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7656EAF0-C844-47D6-988A-05AB1ED7D2D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4A110-4DCF-43D0-BF7A-82A703022CB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>Catégorie</t>
   </si>
@@ -185,9 +184,6 @@
     <t>W3C</t>
   </si>
   <si>
-    <t>Couleur Orange sur Orange</t>
-  </si>
-  <si>
     <t>il doit y avoir un écart dans les couleurs</t>
   </si>
   <si>
@@ -197,18 +193,6 @@
     <t xml:space="preserve">Contraste WCAG </t>
   </si>
   <si>
-    <t>Réseau sociaux mal mis en valeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les flux RSS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> machine à contenu</t>
-  </si>
-  <si>
-    <t>Twitter Facebook Instagram</t>
-  </si>
-  <si>
     <t>mot-clés peu pertinents</t>
   </si>
   <si>
@@ -270,6 +254,15 @@
   </si>
   <si>
     <t>Normes d'usages en code</t>
+  </si>
+  <si>
+    <t>Couleur (ex: Orange sur Orange</t>
+  </si>
+  <si>
+    <t>Java script debut de page</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -609,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -736,7 +729,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" s="7" t="b">
         <v>0</v>
@@ -810,19 +803,19 @@
         <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="E10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -830,19 +823,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -850,19 +843,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E12" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -870,19 +863,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -890,19 +883,19 @@
         <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -910,19 +903,19 @@
         <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -930,19 +923,19 @@
         <v>32</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E16" s="11" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KrakenProjet\AlexisLeMasne_4_19012021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4A110-4DCF-43D0-BF7A-82A703022CB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F02678-8706-4227-9A6E-F4C7C7F8A5EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Catégorie</t>
   </si>
@@ -46,18 +46,12 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
     <t>Referencement Google et annuaire</t>
   </si>
   <si>
-    <t>l'agence n'apparait pas sur Google Buissness ou Yelp</t>
-  </si>
-  <si>
     <t>Pratique du Black Hat</t>
   </si>
   <si>
@@ -263,13 +257,34 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>les script dans la meta</t>
+  </si>
+  <si>
+    <t>placer &lt;script&gt; en fin d'html</t>
+  </si>
+  <si>
+    <t>construction de la meta</t>
+  </si>
+  <si>
+    <t>aucun preload</t>
+  </si>
+  <si>
+    <t>construire une meta saine</t>
+  </si>
+  <si>
+    <t>sur Google Buissness ou Yelp</t>
+  </si>
+  <si>
+    <t>s'inscrire sur les annuaire de ref.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,10 +300,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -315,7 +326,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +339,26 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -352,13 +381,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,21 +408,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,6 +457,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -600,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -648,294 +721,304 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>31</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7" t="b">
+    </row>
+    <row r="12" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="7" t="b">
+      <c r="F12" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="7" t="b">
+      <c r="F13" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="7" t="b">
+      <c r="F14" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="7" t="b">
+      <c r="F15" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="F16" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -945,95 +1028,95 @@
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1978,10 +2061,10 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
+    <sortCondition descending="1" ref="A2:A16"/>
+  </sortState>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
